--- a/biology/Médecine/Amoebozoa/Amoebozoa.xlsx
+++ b/biology/Médecine/Amoebozoa/Amoebozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les amibozoaires (Amoebozoa) (du grec amoibē signifiant « transformation ») constituent un grand groupe de protozoaires simples, la majorité se déplaçant par vagues cytoplasmiques internes[pas clair]. À ne pas confondre avec les amiboïdes (également nommés rhizopodes), qui sont un sous-groupe des amibes, avec environ 200 espèces d'organismes vivants unicellulaires hétérotrophes.
 Leur pseudopode est appelé lobopode. Ils peuvent plus rarement être équipés de flagelles pour assurer leur mobilité. La plupart sont unicellulaires, et sont souvent rencontrés dans les sols et les milieux aquatiques, où ils cohabitent avec d'autres organismes. Plusieurs sont pathogènes. Les Amoebozoa peuvent aussi être multicellulaires et peuvent produire des spores, généralement visibles à l'œil nu.
-La taille des Amoebozoa varie beaucoup. Beaucoup font seulement 10 à 20 μm, mais certains font la taille des plus grands protozoaires. La fameuse espèce Amoeba proteus peut atteindre 800 μm de longueur[3], ce qui en fait un géant dans le monde des amiboïdes[4], et est souvent étudiée comme représentant une cellule (en raison de sa taille). Quand ils s'agglutinent, ils peuvent couvrir de très grandes surfaces. Quelques amibes, appartenant à différents genres, atteignent une taille plus grande, par exemple dans les genres Gromia, Pelomyxa et Chaos.
+La taille des Amoebozoa varie beaucoup. Beaucoup font seulement 10 à 20 μm, mais certains font la taille des plus grands protozoaires. La fameuse espèce Amoeba proteus peut atteindre 800 μm de longueur, ce qui en fait un géant dans le monde des amiboïdes, et est souvent étudiée comme représentant une cellule (en raison de sa taille). Quand ils s'agglutinent, ils peuvent couvrir de très grandes surfaces. Quelques amibes, appartenant à différents genres, atteignent une taille plus grande, par exemple dans les genres Gromia, Pelomyxa et Chaos.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une des caractéristiques des amibes est qu’elles comprennent un ou plusieurs noyaux dans une même cellule, et une vacuole contractile (ou pulselle) pour maintenir leur équilibre osmotique.
 La cellule est généralement divisée en une masse granuleuse centrale, appelée endoplasme, et une couche extérieure, appelée ectoplasme. Au cours de la locomotion, des flux endoplasmiques se produisent à l'avant et à l'arrière de la cellule. De nombreuses amibes ont une côté antérieur et un côté postérieur, la cellule fonctionne comme un seul pseudopode. En général, elles produisent de nombreuses projections appelées subpseudopodia, qui ne sont pas directement impliquées dans la locomotion.
@@ -547,7 +561,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des organismes non-photosynthétiques : ils ne produisent pas d'énergie grâce à la lumière. La chlorophylle parfois observée dans leurs cytoplasmes provient de microalgues phagocytées et en cours d'assimilation par l'amibe.
 Le principal mode de nutrition est la phagocytose : la cellule entoure de potentielles particules d'aliments, puis la vacuole se referme et l'absorbe. Certaines amibes ont une ampoule postérieure appelée une uroïde, qui peut servir à accumuler et évacuer des déchets, et qui se détache périodiquement du reste de la cellule. Lorsque la nourriture est rare, la plupart des espèces peuvent former des kystes, qui peuvent devenir aériens et ainsi être emmenés vers de nouveaux environnements. Chez les myxomycètes, ces structures sont appelées spores et forment des structures appelées sporocystes.
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les amibes sont des protozoaires qui occupent presque tous les compartiments de l'environnement aquatique et des sols humides.
 L’amibe évolue en milieu fortement aqueux et riche en matières organiques.
@@ -612,10 +630,12 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les amibes, comme les autres organismes unicellulaires eucaryotes, se reproduisent de façon asexuée par mitose et cytocinèse (à ne pas confondre avec la fission binaire qui est la façon dont procaryotes (bactéries) se reproduisent).
-Quand l'amibe est divisée par la force (coupée en deux), seule la partie contenant le noyau va survivre et reconstituer une nouvelle cellule et un cytoplasme. Les amibes n'ont également pas de forme définie[5].
+Quand l'amibe est divisée par la force (coupée en deux), seule la partie contenant le noyau va survivre et reconstituer une nouvelle cellule et un cytoplasme. Les amibes n'ont également pas de forme définie.
 </t>
         </is>
       </c>
@@ -644,11 +664,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Historiquement, toutes les amibes à pseudopodes ont été regroupées sous la classe des Lobosea, placées avec d'autres amiboïdes dans les taxons Sarcodina ou Rhizopoda, mais ceux-ci étaient considérés comme des groupes non naturels. Des études génétiques et structurelles ont montré que les Percolozoa et les Archamoebae sont des groupes indépendants. Les études en phylogénie basée sur l'ARNr ont montré que leurs représentants étaient séparés des autres amibes, et ont dû diverger près de la base de l'évolution des eucaryotes, de même que la plupart des myxomycètes.
 Toutefois, les arbres ont été révisés par Cavalier-Smith et Chao en 1996 et il a été suggéré que les autres lobosans forment un groupe monophylétique, et qu'Archamoebae et Mycetozoa sont étroitement liées à celui-ci, bien que les Percolozoa ne le soient pas.
-Classification selon BioLib                    (20 avril 2021)[6] :
+Classification selon BioLib                    (20 avril 2021) :
 embranchement Archamoebae (archéamibes)
 embranchement Flabellinea A. Smirnov &amp; al., 2005
 embranchement Mycetozoa (dont le « blob », Physarum polycephalum)
@@ -661,7 +683,7 @@
 genre Astramoeba Vejdovský, 1881
 genre Branchipocola Breindl, 1925
 genre Sappinia Dangeard, 1896
-Classification selon World Register of Marine Species                               (20 janvier 2023)[7] :
+Classification selon World Register of Marine Species                               (20 janvier 2023) :
 sous-embranchement Amoebozoa incertae sedis
 sous-embranchement Conosa
 sous-embranchement Lobosa
@@ -693,7 +715,9 @@
           <t>L'amibe dans l’environnement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>On distingue les amibes libres des amibes parasitaires.
 Les amibes libres sont capables d'évoluer de façon parfaitement autonome dans leur environnement. Cependant certaines d'entre elles peuvent investir le corps d'un hôte si l'occasion leur en est offerte et y déclencher une pathologie.
@@ -725,7 +749,9 @@
           <t>Pathogénie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines amibes ont un pouvoir pathogène pour diverses espèces, dont l'Homme.
 C'est le cas de Entamoeba histolytica responsable de la dysenterie amibienne ou amibiase dans les milieux tropicaux. La prévalence de ce protozoaire varie considérablement dans les différents groupes de population et est généralement étroitement liée aux conditions socio-économiques.
@@ -761,9 +787,11 @@
           <t>Système immunitaire dans une colonie d'amibes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein d'une colonie d'amibes, des individus spécialisés absorbent les contaminants (bactéries, toxines). Ces cellules ont une capacité de stockage dix fois plus importante que celle des autres cellules de la colonie. Elles sont ensuite rejetées à l'arrière au fur et à mesure du déplacement de la colonie[8].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein d'une colonie d'amibes, des individus spécialisés absorbent les contaminants (bactéries, toxines). Ces cellules ont une capacité de stockage dix fois plus importante que celle des autres cellules de la colonie. Elles sont ensuite rejetées à l'arrière au fur et à mesure du déplacement de la colonie.
 </t>
         </is>
       </c>
@@ -792,7 +820,9 @@
           <t>Résistances</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines amibes font preuve d'une relative résistance à certains biocides (dont le chlore actif des piscines, sous un certain seuil de concentration).
 Les Acanthamoeba s'avèrent plus résistantes que les Naegleria (ils ont une durée de survie dans une eau 40 fois plus longue : 40 min contre 1 min). 0,5 mg/l de chlore actif (acide hypochloreux) est le minimum nécessaire dans une piscine pour éliminer les amibes, ce qui implique 0,5 à 1 mg/l de chlore actif en permanence. Si l'acide hypochloreux est activé par 5 à 10 % de brome naissant, le chlore tue les amibes plus rapidement.
@@ -824,10 +854,12 @@
           <t>Génomique</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Une autre caractéristique remarquable des amibes est la grande taille de leur génome.
-L'espèce Amoeba proteus a 270 milliards (109) de paires de bases dans son génome, et Polychaos dubium (autrefois nommé Amoeba dubia) en compte 670 milliards. Le génome humain est petit par contraste (environ 2,9 milliards de bases)[9].
+L'espèce Amoeba proteus a 270 milliards (109) de paires de bases dans son génome, et Polychaos dubium (autrefois nommé Amoeba dubia) en compte 670 milliards. Le génome humain est petit par contraste (environ 2,9 milliards de bases).
 </t>
         </is>
       </c>
@@ -856,11 +888,13 @@
           <t>Dans l'histoire des sciences</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les amibes ont été pour la première fois décrites par August Johann Rösel von Rosenhof en 1757[10].
-Pour les premiers naturalistes Amoeba l'« animalcule protéen » faisait référence à la Mythologie grecque dans laquelle le dieu Proteus pouvait changer d'apparence. Le nom « amibe » a été ensuite donné à ces organismes par Bory de Saint-Vincent[11], depuis le grec amoibè (αμοιβή), signifiant « changement[12] ».
-Dientamoeba fragilis a été décrite dès 1918[13] et n'a été reconnue comme pathogène important chez l'Homme qu'avec difficulté et on ne sait toujours pas comment cette amibe est transmise (peut être en même temps que les spores du ver parasite (oxyure) Enterobius vermicularis)[13].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amibes ont été pour la première fois décrites par August Johann Rösel von Rosenhof en 1757.
+Pour les premiers naturalistes Amoeba l'« animalcule protéen » faisait référence à la Mythologie grecque dans laquelle le dieu Proteus pouvait changer d'apparence. Le nom « amibe » a été ensuite donné à ces organismes par Bory de Saint-Vincent, depuis le grec amoibè (αμοιβή), signifiant « changement ».
+Dientamoeba fragilis a été décrite dès 1918 et n'a été reconnue comme pathogène important chez l'Homme qu'avec difficulté et on ne sait toujours pas comment cette amibe est transmise (peut être en même temps que les spores du ver parasite (oxyure) Enterobius vermicularis).
 </t>
         </is>
       </c>
@@ -889,7 +923,9 @@
           <t>Organisme modèle</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">La simplicité fonctionnelle et structurale des amibes a permis d'en faire un organisme d'étude et de laboratoire modèle.
 Elles ont permis de nombreuses études, notamment par Balbiani sur la localisation de l'information génétique dans le noyau (section d'amibe).
